--- a/out/c.xlsx
+++ b/out/c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -28,10 +28,19 @@
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -389,13 +398,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,8 +423,17 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -429,13 +447,22 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="E2">
-        <v>0.8571428571428571</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="F2">
         <v>0.9047619047619048</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="H2">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I2">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -454,8 +481,17 @@
       <c r="F3">
         <v>0.7619047619047619</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="H3">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="I3">
+        <v>0.7619047619047619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -469,13 +505,22 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="E4">
-        <v>0.7619047619047619</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="F4">
-        <v>0.7142857142857143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="G4">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H4">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I4">
+        <v>0.8095238095238095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -494,8 +539,17 @@
       <c r="F5">
         <v>0.7619047619047619</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="H5">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="I5">
+        <v>0.7619047619047619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -514,8 +568,17 @@
       <c r="F6">
         <v>0.8095238095238095</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="H6">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="I6">
+        <v>0.8095238095238095</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -529,13 +592,22 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="E7">
-        <v>0.7142857142857143</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="F7">
         <v>0.7619047619047619</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="H7">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="I7">
+        <v>0.8095238095238095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -554,8 +626,17 @@
       <c r="F8">
         <v>0.7619047619047619</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="H8">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="I8">
+        <v>0.8095238095238095</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -574,8 +655,17 @@
       <c r="F9">
         <v>0.9523809523809523</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>0.9523809523809523</v>
+      </c>
+      <c r="H9">
+        <v>0.9523809523809523</v>
+      </c>
+      <c r="I9">
+        <v>0.9523809523809523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -589,13 +679,22 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E10">
-        <v>0.7142857142857143</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="F10">
         <v>0.7619047619047619</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="H10">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="I10">
+        <v>0.7619047619047619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -612,10 +711,19 @@
         <v>0.9523809523809523</v>
       </c>
       <c r="F11">
-        <v>0.9047619047619048</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.9523809523809523</v>
+      </c>
+      <c r="G11">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="H11">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="I11">
+        <v>0.9047619047619048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -634,8 +742,17 @@
       <c r="F12">
         <v>0.7142857142857143</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H12">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I12">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -654,8 +771,17 @@
       <c r="F13">
         <v>0.7142857142857143</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H13">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I13">
+        <v>0.7619047619047619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -674,8 +800,17 @@
       <c r="F14">
         <v>0.7142857142857143</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H14">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I14">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -689,13 +824,22 @@
         <v>0.8095238095238095</v>
       </c>
       <c r="E15">
-        <v>0.8095238095238095</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="F15">
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H15">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I15">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -714,8 +858,17 @@
       <c r="F16">
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H16">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I16">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -732,10 +885,19 @@
         <v>0.7619047619047619</v>
       </c>
       <c r="F17">
-        <v>0.7142857142857143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="G17">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H17">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="I17">
+        <v>0.7619047619047619</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -752,10 +914,19 @@
         <v>0.9523809523809523</v>
       </c>
       <c r="F18">
-        <v>0.9047619047619048</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>0.9523809523809523</v>
+      </c>
+      <c r="G18">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="H18">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="I18">
+        <v>0.9047619047619048</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -774,8 +945,17 @@
       <c r="F19">
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H19">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I19">
+        <v>0.9047619047619048</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -794,8 +974,17 @@
       <c r="F20">
         <v>0.7619047619047619</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="H20">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="I20">
+        <v>0.7619047619047619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -809,13 +998,22 @@
         <v>0.8095238095238095</v>
       </c>
       <c r="E21">
-        <v>0.8095238095238095</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="F21">
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H21">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I21">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -834,8 +1032,17 @@
       <c r="F22">
         <v>0.7142857142857143</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H22">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I22">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -849,13 +1056,22 @@
         <v>0.9047619047619048</v>
       </c>
       <c r="E23">
-        <v>0.9047619047619048</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="F23">
-        <v>0.7619047619047619</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="G23">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="H23">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="I23">
+        <v>0.7619047619047619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
@@ -869,13 +1085,22 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="E24">
-        <v>0.7619047619047619</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="F24">
         <v>0.8095238095238095</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="H24">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I24">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
@@ -894,8 +1119,17 @@
       <c r="F25">
         <v>0.7142857142857143</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H25">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I25">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
@@ -914,8 +1148,17 @@
       <c r="F26">
         <v>0.8095238095238095</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="H26">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="I26">
+        <v>0.8095238095238095</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -934,8 +1177,17 @@
       <c r="F27">
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H27">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I27">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
@@ -952,10 +1204,19 @@
         <v>0.9523809523809523</v>
       </c>
       <c r="F28">
-        <v>0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="G28">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H28">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I28">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
@@ -969,13 +1230,22 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="E29">
-        <v>0.7142857142857143</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="F29">
         <v>0.7619047619047619</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="H29">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="I29">
+        <v>0.7619047619047619</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
@@ -994,8 +1264,17 @@
       <c r="F30">
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H30">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I30">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1009,13 +1288,22 @@
         <v>0.7619047619047619</v>
       </c>
       <c r="E31">
-        <v>0.7619047619047619</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="F31">
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H31">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I31">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1034,8 +1322,17 @@
       <c r="F32">
         <v>0.7142857142857143</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H32">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I32">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1049,13 +1346,22 @@
         <v>0.9047619047619048</v>
       </c>
       <c r="E33">
-        <v>0.9047619047619048</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="F33">
-        <v>0.9047619047619048</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.9523809523809523</v>
+      </c>
+      <c r="G33">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="H33">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I33">
+        <v>0.8095238095238095</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1072,10 +1378,19 @@
         <v>0.9047619047619048</v>
       </c>
       <c r="F34">
-        <v>0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="G34">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H34">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I34">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1092,10 +1407,19 @@
         <v>0.9047619047619048</v>
       </c>
       <c r="F35">
-        <v>0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="G35">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H35">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I35">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1114,8 +1438,17 @@
       <c r="F36">
         <v>0.7619047619047619</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="H36">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I36">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1129,13 +1462,22 @@
         <v>0.8095238095238095</v>
       </c>
       <c r="E37">
-        <v>0.8095238095238095</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="F37">
-        <v>0.8095238095238095</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G37">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="H37">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="I37">
+        <v>0.8095238095238095</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1149,13 +1491,22 @@
         <v>0.9047619047619048</v>
       </c>
       <c r="E38">
-        <v>0.9523809523809523</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="F38">
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H38">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I38">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1174,8 +1525,17 @@
       <c r="F39">
         <v>0.9047619047619048</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="H39">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="I39">
+        <v>0.9047619047619048</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1194,8 +1554,17 @@
       <c r="F40">
         <v>0.7619047619047619</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="H40">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I40">
+        <v>0.7619047619047619</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1209,13 +1578,22 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="E41">
-        <v>0.9047619047619048</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="F41">
         <v>0.9047619047619048</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="H41">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="I41">
+        <v>0.9523809523809523</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1234,8 +1612,17 @@
       <c r="F42">
         <v>0.9047619047619048</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="H42">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="I42">
+        <v>0.9047619047619048</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1254,8 +1641,17 @@
       <c r="F43">
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H43">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="I43">
+        <v>0.8095238095238095</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1269,13 +1665,22 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="E44">
-        <v>0.9047619047619048</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="F44">
         <v>0.8095238095238095</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="H44">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="I44">
+        <v>0.8095238095238095</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1294,8 +1699,17 @@
       <c r="F45">
         <v>0.7619047619047619</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="H45">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="I45">
+        <v>0.7619047619047619</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1309,13 +1723,22 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="E46">
-        <v>0.8571428571428571</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="F46">
         <v>0.9047619047619048</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="H46">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="I46">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1334,8 +1757,17 @@
       <c r="F47">
         <v>0.8095238095238095</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="H47">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="I47">
+        <v>0.8095238095238095</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1352,10 +1784,19 @@
         <v>0.9523809523809523</v>
       </c>
       <c r="F48">
-        <v>0.9047619047619048</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.9523809523809523</v>
+      </c>
+      <c r="G48">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="H48">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="I48">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1372,10 +1813,19 @@
         <v>0.7619047619047619</v>
       </c>
       <c r="F49">
-        <v>0.8095238095238095</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="G49">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="H49">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I49">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1389,13 +1839,22 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="E50">
-        <v>0.8571428571428571</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="F50">
         <v>0.9047619047619048</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="H50">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="I50">
+        <v>0.9047619047619048</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1409,10 +1868,19 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="E51">
-        <v>0.9047619047619048</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="F51">
         <v>0.8571428571428571</v>
+      </c>
+      <c r="G51">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H51">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I51">
+        <v>0.7619047619047619</v>
       </c>
     </row>
   </sheetData>
